--- a/xlsx/国内生产总值_intext.xlsx
+++ b/xlsx/国内生产总值_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="285">
   <si>
     <t>国内生产总值</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界銀行</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_国内生产总值</t>
+    <t>世界银行</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E7%A3%B7%E9%85%B8%E9%B3%A5%E8%8B%B7</t>
   </si>
   <si>
-    <t>二磷酸鳥苷</t>
+    <t>二磷酸鸟苷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非洲經濟</t>
+    <t>非洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>亞洲經濟</t>
+    <t>亚洲经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%BB%8F%E6%B5%8E</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>國民收入</t>
+    <t>国民收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共經濟學</t>
+    <t>公共经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>農業經濟學</t>
+    <t>农业经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -269,19 +269,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態經濟學</t>
+    <t>生态经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會經濟學</t>
+    <t>社会经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>封閉經濟</t>
+    <t>封闭经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>非正式經濟</t>
+    <t>非正式经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E5%B7%A5%E6%A5%AD%E5%8C%96%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>新興工業化國家</t>
+    <t>新兴工业化国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%B0%8E%E5%90%91%E5%9E%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>資源導向型經濟</t>
+    <t>资源导向型经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Economics_sidebar</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E5%BA%A6</t>
@@ -503,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E4%BD%8F%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>移住勞工</t>
+    <t>移住劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>產業</t>
+    <t>产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%A6%81%E7%B4%A0</t>
@@ -545,31 +545,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>消費</t>
+    <t>消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%B2%E8%93%84</t>
   </si>
   <si>
-    <t>儲蓄</t>
+    <t>储蓄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85</t>
   </si>
   <si>
-    <t>稅</t>
+    <t>税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
   </si>
   <si>
-    <t>投資</t>
+    <t>投资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A8%E5%87%BA%E5%8F%A3</t>
   </si>
   <si>
-    <t>淨出口</t>
+    <t>净出口</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
@@ -587,49 +587,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>發展中國家</t>
+    <t>发展中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85</t>
   </si>
   <si>
-    <t>消費者</t>
+    <t>消费者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2%E5%95%86</t>
   </si>
   <si>
-    <t>生產商</t>
+    <t>生产商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC%E5%B9%B3%E6%B8%9B%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>國內生產總值平減指數</t>
+    <t>国内生产总值平减指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際貨幣基金組織</t>
+    <t>国际货币基金组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>中央情報局</t>
+    <t>中央情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E6%B3%81</t>
   </si>
   <si>
-    <t>世界概況</t>
+    <t>世界概况</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E5%9B%BD%E9%99%85%E6%B1%87%E7%8E%87)</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%B9%B4%E5%90%84%E5%9C%8B%E4%BA%BA%E5%9D%87%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>歷年各國人均國內生產總值列表</t>
+    <t>历年各国人均国内生产总值列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85GNI%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
@@ -665,13 +665,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2GDP</t>
   </si>
   <si>
-    <t>綠色GDP</t>
+    <t>绿色GDP</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%90%84%E5%9C%B0%E5%8D%80%E6%AD%B7%E5%8F%B2%E4%B8%8A%E7%9A%84%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9)</t>
   </si>
   <si>
-    <t>世界各地區歷史上的國內生產總值列表 (購買力平價)</t>
+    <t>世界各地区历史上的国内生产总值列表 (购买力平价)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Genuine_Progress_Indicator</t>
@@ -683,19 +683,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>宏觀經濟學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E5%9F%BA%E6%9C%AC%E6%94%B6%E5%85%A5</t>
   </si>
   <si>
-    <t>無條件基本收入</t>
+    <t>无条件基本收入</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%87%B1%E5%9B%A0%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍事凱因斯主義</t>
+    <t>军事凯因斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83%E5%9B%BD%E5%AE%B6%E7%9A%84%E5%A4%96%E9%83%A8%E8%B5%84%E4%BA%A7%E6%B8%85%E5%8D%95</t>
@@ -719,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>第五產業</t>
+    <t>第五产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%90%84%E4%BA%A7%E4%B8%9A%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -737,13 +734,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%90%84%E5%9C%B0%E5%8C%BA%E5%8E%86%E5%8F%B2%E4%B8%8A%E7%9A%84%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
   </si>
   <si>
-    <t>世界各地区历史上的国内生产总值列表 (购买力平价)</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E4%B8%8A%E5%90%84%E5%9C%8B%E4%BA%BA%E5%9D%87%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E6%AF%9B%E9%A1%8D%E5%88%97%E8%A1%A8_(%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9)</t>
   </si>
   <si>
-    <t>歷史上各國人均國內生產毛額列表 (購買力平價)</t>
+    <t>历史上各国人均国内生产毛额列表 (购买力平价)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BDGDP%E5%AE%9E%E9%99%85%E5%A2%9E%E9%95%BF%E7%8E%87%E5%88%97%E8%A1%A8</t>
@@ -809,13 +803,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>義大利經濟</t>
+    <t>义大利经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%90%84%E9%83%BD%E9%81%93%E5%BA%9C%E7%B8%A3%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>日本各都道府縣國內生產總值列表</t>
+    <t>日本各都道府县国内生产总值列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%90%84%E8%81%94%E9%82%A6%E4%B8%BB%E4%BD%93%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -851,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E8%88%87%E7%99%BC%E5%B1%95%E7%B5%84%E7%B9%94%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%9D%87%E5%9C%B0%E5%8D%80%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>經濟合作與發展組織國家人均地區生產總值</t>
+    <t>经济合作与发展组织国家人均地区生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9F%8E%E5%B8%82%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -863,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -875,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4552,7 +4546,7 @@
         <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4578,10 +4572,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>222</v>
+      </c>
+      <c r="F116" t="s">
         <v>223</v>
-      </c>
-      <c r="F116" t="s">
-        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4607,10 +4601,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>224</v>
+      </c>
+      <c r="F117" t="s">
         <v>225</v>
-      </c>
-      <c r="F117" t="s">
-        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4636,10 +4630,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>226</v>
+      </c>
+      <c r="F118" t="s">
         <v>227</v>
-      </c>
-      <c r="F118" t="s">
-        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4665,10 +4659,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>228</v>
+      </c>
+      <c r="F119" t="s">
         <v>229</v>
-      </c>
-      <c r="F119" t="s">
-        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4694,10 +4688,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>230</v>
+      </c>
+      <c r="F120" t="s">
         <v>231</v>
-      </c>
-      <c r="F120" t="s">
-        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4723,10 +4717,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>232</v>
+      </c>
+      <c r="F121" t="s">
         <v>233</v>
-      </c>
-      <c r="F121" t="s">
-        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4810,10 +4804,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" t="s">
         <v>235</v>
-      </c>
-      <c r="F124" t="s">
-        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4839,10 +4833,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
         <v>237</v>
-      </c>
-      <c r="F125" t="s">
-        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -4897,10 +4891,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4926,10 +4920,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4955,10 +4949,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -4984,10 +4978,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F130" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5013,10 +5007,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F131" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G131" t="n">
         <v>14</v>
@@ -5042,10 +5036,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5071,10 +5065,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5100,10 +5094,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5129,10 +5123,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5158,10 +5152,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G136" t="n">
         <v>4</v>
@@ -5187,10 +5181,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5216,10 +5210,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5245,10 +5239,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5274,10 +5268,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5303,10 +5297,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5332,10 +5326,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5361,10 +5355,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5390,10 +5384,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5419,10 +5413,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5448,10 +5442,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5477,10 +5471,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5506,10 +5500,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -5535,10 +5529,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G149" t="n">
         <v>7</v>
@@ -5564,10 +5558,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F150" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -5593,10 +5587,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F151" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5622,10 +5616,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F152" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>

--- a/xlsx/国内生产总值_intext.xlsx
+++ b/xlsx/国内生产总值_intext.xlsx
@@ -29,7 +29,7 @@
     <t>世界銀行</t>
   </si>
   <si>
-    <t>政策_政策_美國_国内生产总值</t>
+    <t>体育运动_体育运动_伊朗_国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E7%A3%B7%E9%85%B8%E9%B3%A5%E8%8B%B7</t>
